--- a/m6A papers/dataset_performance.xlsx
+++ b/m6A papers/dataset_performance.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\paper_implement\m6A papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\m6A papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA1E333-141B-4635-AB5B-268A300B41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{27F56AB1-C793-4098-8E80-35944F1842D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
     <sheet name="工作表1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
   <si>
     <t>Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -69,10 +68,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6mA-RicePred: A Method for Identifying DNA N (6)-Methyladenine Sites in the Rice Genome Based on Feature Fusion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>iMethyl-Deep: N6 Methyladenosine Identification of Yeast Genome with Automatic Feature Extraction Technique by Using Deep Learning Algorithm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -85,130 +80,355 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>A deep learning-based computational approach for discrimination of DNA N6-methyladenosine sites by fusing heterogeneous features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elucidation of DNA methylation on N6-adenine with deep learning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS-m6A-DL: Tissue-specific identification of N6-methyladenosine sites using a universal deep learning model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A convolution based computational approach towards DNA N6-methyladenine site identification and motif extraction in rice genome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-Pred: identifying DNA N6-methyladenine sites based on deep learning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leveraging the attention mechanism to improve the identification of DNA N6-methyladenine sites</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mAPred-MSFF: A Deep Learning Model for Predicting DNA N6-Methyladenine Sites across Species Based on a Multi-Scale Feature Fusion Mechanism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GC6mA-Pred: A deep learning approach to identify DNA N6-methyladenine sites in the rice genome </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGF6mARice: prediction of DNA N6-methyladenine sites in rice by exploiting molecular graph feature and residual block</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bCNN-Methylpred: Feature-Based Prediction of RNA Sequence Modification Using Branch Convolutional Neural Network</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Deep Learning Model for Predicting DNA N6-Methyladenine (6mA) Sites in Eukaryotes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLF6mA: A Novel Model for N6-Methyladenine DNA Methylation Identification With Gene Expression Data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imputing DNA Methylation by Transferred Learning Based Neural Network</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant6mA: A predictor for predicting N6-methyladenine sites with lightweight structure in plant genomes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-CNN: a convolution based computational approach towards identi_x000C_cation of DNA N6-methyladenine sites in rice genome</t>
+  </si>
+  <si>
+    <t>i6mA-Pred: identifying DNA N-6 - methyladenine sites in the rice genome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-Fuse: improved and robust prediction of DNA 6 mA sites in the Rosaceae genome by fusing multiple feature representation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A comprehensive comparison and analysis of computational predictors for RNA N6-methyladenosine sites of Saccharomyces cerevisiae</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-DNCP: Computational Identification of DNA N-6-Methyladenine Sites in the Rice Genome Using Optimized Dinucleotide-Based Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical evaluation of web-based DNA N6-methyladenine site prediction tools</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The epigenetic roles of DNA N-6-Methyladenine (6mA) modification in eukaryotes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A deep learning-based computational approach for discrimination of DNA N-6-methyladenosine sites by fusing heterogeneous features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m6ABRP: Predicting m6A-YTHDF2 Binding Regions via Sequence-based Properties</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samples</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human-Brain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human-Liver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human-Kidney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse-Brain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse-Liver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse-Kidney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse-Heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse-Testis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat-Brain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat-Liver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat-Kidney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-DNCP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMethyl-Deep</t>
+  </si>
+  <si>
+    <t>TS-m6A-DL</t>
+  </si>
+  <si>
+    <t>i6mA-CNN</t>
+  </si>
+  <si>
+    <t>GC6mA-Pred</t>
+  </si>
+  <si>
+    <t>GLF6mA</t>
+  </si>
+  <si>
+    <t>i6mA-Pred</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-Fuse</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iN6-Methyl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRNA-m6A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>im6A-TS-CNN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep6mA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m6A-NeuralTool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICD6mA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepM6A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-Pred</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mAPred-MSFF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGF6mARice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bCNN-Methylpred</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant6mA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-CNN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNNRice6mA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice-chen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice-Lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>pm6A-CNN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice-chen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICD6mA: Identifying 6mA sites using deep memory network</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>for training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Deep transformers and convolutional neural network in identifying DNA N6-methyladenine sites in cross-species genomes </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SICD6mA: Identifying 6mA sites using deep memory network</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A deep learning-based computational approach for discrimination of DNA N6-methyladenosine sites by fusing heterogeneous features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elucidation of DNA methylation on N6-adenine with deep learning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS-m6A-DL: Tissue-specific identification of N6-methyladenosine sites using a universal deep learning model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A convolution based computational approach towards DNA N6-methyladenine site identification and motif extraction in rice genome</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mA-Pred: identifying DNA N6-methyladenine sites based on deep learning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leveraging the attention mechanism to improve the identification of DNA N6-methyladenine sites</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mAPred-MSFF: A Deep Learning Model for Predicting DNA N6-Methyladenine Sites across Species Based on a Multi-Scale Feature Fusion Mechanism</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GC6mA-Pred: A deep learning approach to identify DNA N6-methyladenine sites in the rice genome </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGF6mARice: prediction of DNA N6-methyladenine sites in rice by exploiting molecular graph feature and residual block</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bCNN-Methylpred: Feature-Based Prediction of RNA Sequence Modification Using Branch Convolutional Neural Network</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Deep Learning Model for Predicting DNA N6-Methyladenine (6mA) Sites in Eukaryotes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLF6mA: A Novel Model for N6-Methyladenine DNA Methylation Identification With Gene Expression Data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imputing DNA Methylation by Transferred Learning Based Neural Network</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plant6mA: A predictor for predicting N6-methyladenine sites with lightweight structure in plant genomes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-CNN: a convolution based computational approach towards identi_x000C_cation of DNA N6-methyladenine sites in rice genome</t>
-  </si>
-  <si>
-    <t>i6mA-Pred: identifying DNA N-6 - methyladenine sites in the rice genome</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-Fuse: improved and robust prediction of DNA 6 mA sites in the Rosaceae genome by fusing multiple feature representation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A comprehensive comparison and analysis of computational predictors for RNA N6-methyladenosine sites of Saccharomyces cerevisiae</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-DNCP: Computational Identification of DNA N-6-Methyladenine Sites in the Rice Genome Using Optimized Dinucleotide-Based Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical evaluation of web-based DNA N6-methyladenine site prediction tools</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The epigenetic roles of DNA N-6-Methyladenine (6mA) modification in eukaryotes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A deep learning-based computational approach for discrimination of DNA N-6-methyladenosine sites by fusing heterogeneous features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m6ABRP: Predicting m6A-YTHDF2 Binding Regions via Sequence-based Properties</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Rice-chen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice-Lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosa chinensis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fragaria vesca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Saccharomyces cerevisiae</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Arabidopsis thaliana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross-species dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Homo sapiens</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mus musculus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samples</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Species</t>
+    <t>Nipponbare japonica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fragaria vesca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosa chinensis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice indica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drosophila</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tolypocladium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeast</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -256,14 +476,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Rice</t>
+    <t>Fragaria Vesca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabidopsis Thaliana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -297,15 +529,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -320,7 +554,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -408,13 +642,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,52 +694,122 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -784,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF7E8B5-5969-4F1F-9B75-9057C870B48A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -797,463 +1138,1373 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C99AC8C-8D08-40EF-A8E5-27CE31329D56}">
-  <dimension ref="A1:E68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="131.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="131.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6">
+        <v>51</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2614</v>
+      </c>
+      <c r="F2" s="31">
+        <v>80.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="14">
+        <v>41</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2260</v>
+      </c>
+      <c r="F3" s="32">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="9">
+        <v>1450</v>
+      </c>
+      <c r="F4" s="34">
+        <v>91.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13">
+        <v>41</v>
+      </c>
+      <c r="E5" s="10">
+        <v>18418</v>
+      </c>
+      <c r="F5" s="31">
+        <v>77.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="7">
+        <v>10536</v>
+      </c>
+      <c r="F6" s="32">
+        <v>86.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="7">
+        <v>18294</v>
+      </c>
+      <c r="F7" s="32">
+        <v>86.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="7">
+        <v>32100</v>
+      </c>
+      <c r="F8" s="32">
+        <v>86.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="7">
+        <v>16532</v>
+      </c>
+      <c r="F9" s="32">
+        <v>77.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="7">
+        <v>15810</v>
+      </c>
+      <c r="F10" s="32">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="7">
+        <v>8802</v>
+      </c>
+      <c r="F11" s="32">
+        <v>78.959999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="7">
+        <v>18823</v>
+      </c>
+      <c r="F12" s="32">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="7">
+        <v>9406</v>
+      </c>
+      <c r="F13" s="32">
+        <v>82.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="7">
+        <v>7048</v>
+      </c>
+      <c r="F14" s="32">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="9">
+        <v>13740</v>
+      </c>
+      <c r="F15" s="34">
+        <v>88.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="13">
+        <v>41</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1760</v>
+      </c>
+      <c r="F16" s="31">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="9">
+        <v>308000</v>
+      </c>
+      <c r="F17" s="34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="13">
+        <v>41</v>
+      </c>
+      <c r="E18" s="38">
+        <v>2260</v>
+      </c>
+      <c r="F18" s="39">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="36">
+        <v>1450</v>
+      </c>
+      <c r="F19" s="40">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7">
+        <v>51</v>
+      </c>
+      <c r="E20" s="36">
+        <v>2614</v>
+      </c>
+      <c r="F20" s="40">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="9">
+        <v>101</v>
+      </c>
+      <c r="E21" s="41">
+        <v>4200</v>
+      </c>
+      <c r="F21" s="42">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="23">
+        <v>41</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1760</v>
+      </c>
+      <c r="F22" s="43">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="13">
+        <v>41</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1760</v>
+      </c>
+      <c r="F23" s="31">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="9">
+        <v>308000</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D25" s="13">
         <v>41</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E25" s="10">
+        <v>18418</v>
+      </c>
+      <c r="F25" s="39">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7">
+        <v>10536</v>
+      </c>
+      <c r="F26" s="40">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="D27" s="14"/>
+      <c r="E27" s="7">
+        <v>18294</v>
+      </c>
+      <c r="F27" s="32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="7">
+        <v>32100</v>
+      </c>
+      <c r="F28" s="32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="7">
+        <v>16532</v>
+      </c>
+      <c r="F29" s="32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="7">
+        <v>15810</v>
+      </c>
+      <c r="F30" s="32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="7">
+        <v>8802</v>
+      </c>
+      <c r="F31" s="32">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="7">
+        <v>18823</v>
+      </c>
+      <c r="F32" s="32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="7">
+        <v>9406</v>
+      </c>
+      <c r="F33" s="32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="7">
+        <v>7048</v>
+      </c>
+      <c r="F34" s="32">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="9">
+        <v>13740</v>
+      </c>
+      <c r="F35" s="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="30">
         <v>51</v>
       </c>
-      <c r="D2" s="9">
+      <c r="E36" s="10">
         <v>2614</v>
       </c>
-      <c r="E2" s="10">
-        <v>80.31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="F36" s="31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="9">
+        <v>6540</v>
+      </c>
+      <c r="F37" s="34">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="13">
         <v>41</v>
       </c>
-      <c r="D3" s="13">
+      <c r="E38" s="10">
+        <v>1760</v>
+      </c>
+      <c r="F38" s="31">
+        <v>96</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="7">
+        <v>308000</v>
+      </c>
+      <c r="F39" s="32">
+        <v>98</v>
+      </c>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="7">
+        <v>196966</v>
+      </c>
+      <c r="F40" s="32">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="7">
+        <v>11466</v>
+      </c>
+      <c r="F41" s="32">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="9">
+        <v>2834</v>
+      </c>
+      <c r="F42" s="34">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="13">
+        <v>41</v>
+      </c>
+      <c r="E43" s="10">
         <v>2260</v>
       </c>
-      <c r="E3" s="14">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="F43" s="31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="7">
+        <v>1450</v>
+      </c>
+      <c r="F44" s="32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="7">
+        <v>51</v>
+      </c>
+      <c r="E45" s="7">
+        <v>2614</v>
+      </c>
+      <c r="F45" s="32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="9">
+        <v>101</v>
+      </c>
+      <c r="E46" s="9">
+        <v>4200</v>
+      </c>
+      <c r="F46" s="34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="23">
         <v>41</v>
       </c>
-      <c r="D4" s="17">
-        <v>1450</v>
-      </c>
-      <c r="E4" s="18">
-        <v>91.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="E47" s="23">
+        <v>5484</v>
+      </c>
+      <c r="F47" s="37">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="13">
         <v>41</v>
       </c>
-      <c r="D5" s="9">
+      <c r="E48" s="10">
+        <v>1229712</v>
+      </c>
+      <c r="F48" s="31">
+        <v>93.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="7">
+        <v>761300</v>
+      </c>
+      <c r="F49" s="32">
+        <v>99.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="7">
+        <v>76104</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="7">
+        <v>53028</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="7">
+        <v>29354</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="7">
+        <v>1553716</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="7">
+        <v>326986</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="7">
+        <v>6903</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="9">
+        <v>8188</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="13">
+        <v>41</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1760</v>
+      </c>
+      <c r="F57" s="31">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="9">
+        <v>3868</v>
+      </c>
+      <c r="F58" s="34">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="13">
+        <v>41</v>
+      </c>
+      <c r="E60" s="10">
         <v>18418</v>
       </c>
-      <c r="E5" s="10">
-        <v>77.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="F60" s="31">
+        <v>82.62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="7">
+        <v>10536</v>
+      </c>
+      <c r="F61" s="32">
+        <v>91.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="7">
+        <v>18294</v>
+      </c>
+      <c r="F62" s="32">
+        <v>89.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="7">
+        <v>32100</v>
+      </c>
+      <c r="F63" s="32">
+        <v>88.31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="7">
+        <v>16532</v>
+      </c>
+      <c r="F64" s="32">
+        <v>82.88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="7">
+        <v>15810</v>
+      </c>
+      <c r="F65" s="32">
+        <v>90.79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="7">
+        <v>8802</v>
+      </c>
+      <c r="F66" s="32">
+        <v>85.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="7">
+        <v>18823</v>
+      </c>
+      <c r="F67" s="32">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="7">
+        <v>9406</v>
+      </c>
+      <c r="F68" s="32">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="7">
+        <v>7048</v>
+      </c>
+      <c r="F69" s="32">
+        <v>90.66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="9">
+        <v>13740</v>
+      </c>
+      <c r="F70" s="34">
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="13">
         <v>41</v>
       </c>
-      <c r="D6" s="13">
-        <v>10536</v>
-      </c>
-      <c r="E6" s="14">
-        <v>86.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="E71" s="10">
+        <v>1760</v>
+      </c>
+      <c r="F71" s="31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="7">
+        <v>308000</v>
+      </c>
+      <c r="F72" s="32">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="14"/>
+      <c r="E73" s="7">
+        <v>8979</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="9">
+        <v>67650</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="13">
         <v>41</v>
       </c>
-      <c r="D7" s="13">
-        <v>18294</v>
-      </c>
-      <c r="E7" s="14">
-        <v>86.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="12">
-        <v>41</v>
-      </c>
-      <c r="D8" s="13">
-        <v>32100</v>
-      </c>
-      <c r="E8" s="14">
-        <v>86.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="12">
-        <v>41</v>
-      </c>
-      <c r="D9" s="13">
-        <v>16532</v>
-      </c>
-      <c r="E9" s="14">
-        <v>77.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12">
-        <v>41</v>
-      </c>
-      <c r="D10" s="13">
-        <v>15810</v>
-      </c>
-      <c r="E10" s="14">
-        <v>87.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="12">
-        <v>41</v>
-      </c>
-      <c r="D11" s="13">
-        <v>8802</v>
-      </c>
-      <c r="E11" s="14">
-        <v>78.959999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="12">
-        <v>41</v>
-      </c>
-      <c r="D12" s="13">
-        <v>18823</v>
-      </c>
-      <c r="E12" s="14">
-        <v>81.900000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="E75" s="10">
+        <v>30800</v>
+      </c>
+      <c r="F75" s="31">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="7">
+        <v>3868</v>
+      </c>
+      <c r="F76" s="32">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="9">
+        <v>1229712</v>
+      </c>
+      <c r="F77" s="34">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="12">
-        <v>41</v>
-      </c>
-      <c r="D13" s="13">
-        <v>9406</v>
-      </c>
-      <c r="E13" s="14">
-        <v>82.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="12">
-        <v>41</v>
-      </c>
-      <c r="D14" s="13">
-        <v>7048</v>
-      </c>
-      <c r="E14" s="14">
-        <v>87.58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="16">
-        <v>41</v>
-      </c>
-      <c r="D15" s="17">
-        <v>13740</v>
-      </c>
-      <c r="E15" s="18">
-        <v>88.39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="19">
-        <v>41</v>
-      </c>
-      <c r="D16" s="9">
-        <v>880</v>
-      </c>
-      <c r="E16" s="10">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="16">
-        <v>41</v>
-      </c>
-      <c r="D17" s="17">
-        <v>154000</v>
-      </c>
-      <c r="E17" s="18">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="B91" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>36</v>
-      </c>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="24"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="3">
+  <mergeCells count="43">
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D60:D70"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D35"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B25:B35"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D5:D15"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/m6A papers/dataset_performance.xlsx
+++ b/m6A papers/dataset_performance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\m6A papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳毓凱\Desktop\碩士\paper_implement\m6A papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C3F2BC-469B-4D92-978A-163AB197A8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -20,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
   <si>
     <t>Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -490,12 +481,84 @@
   <si>
     <t>Human</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-rice-Lv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-rice-Chen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. thaliana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R. chinensis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">F. vesca </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">H. sapiens </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D. melanogaster </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross species </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">M. musculus </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A. thaliana </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">S. cerevisiae </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">E. coli </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. vesca</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S. cerevisiae</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. musculus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H. sapiens</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -685,14 +748,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,35 +781,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,60 +791,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1125,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1138,19 +1238,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="131.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="131.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1158,1310 +1259,1722 @@
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>51</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>2614</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="18">
         <v>80.31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="14">
-        <v>41</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="30">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6">
         <v>2260</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="19">
         <v>90.3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="9">
+      <c r="D4" s="31"/>
+      <c r="E4" s="8">
         <v>1450</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="20">
         <v>91.33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13">
-        <v>41</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="29">
+        <v>41</v>
+      </c>
+      <c r="E5" s="9">
         <v>18418</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="18">
         <v>77.89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="7">
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="6">
         <v>10536</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="19">
         <v>86.83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="7">
+      <c r="D7" s="30"/>
+      <c r="E7" s="6">
         <v>18294</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="19">
         <v>86.58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="7">
+      <c r="D8" s="30"/>
+      <c r="E8" s="6">
         <v>32100</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="19">
         <v>86.12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="7">
+      <c r="D9" s="30"/>
+      <c r="E9" s="6">
         <v>16532</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="19">
         <v>77.81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="7">
+      <c r="D10" s="30"/>
+      <c r="E10" s="6">
         <v>15810</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="19">
         <v>87.77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="7">
+      <c r="D11" s="30"/>
+      <c r="E11" s="6">
         <v>8802</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="19">
         <v>78.959999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="7">
+      <c r="D12" s="30"/>
+      <c r="E12" s="6">
         <v>18823</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="19">
         <v>81.900000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="7">
+      <c r="D13" s="30"/>
+      <c r="E13" s="6">
         <v>9406</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="19">
         <v>82.45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="7">
+      <c r="D14" s="30"/>
+      <c r="E14" s="6">
         <v>7048</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="19">
         <v>87.58</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9">
+      <c r="D15" s="31"/>
+      <c r="E15" s="8">
         <v>13740</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="20">
         <v>88.39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="13">
-        <v>41</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="29">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9">
         <v>1760</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="18">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="9">
+      <c r="D17" s="31"/>
+      <c r="E17" s="8">
         <v>308000</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="20">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="13">
-        <v>41</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="D18" s="29">
+        <v>41</v>
+      </c>
+      <c r="E18" s="23">
         <v>2260</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="24">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="36">
+      <c r="D19" s="30"/>
+      <c r="E19" s="21">
         <v>1450</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="25">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="16" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>51</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="21">
         <v>2614</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="25">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>101</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="26">
         <v>4200</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="27">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="23">
-        <v>41</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="D22" s="13">
+        <v>41</v>
+      </c>
+      <c r="E22" s="13">
         <v>1760</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="28">
         <v>88.6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="13">
-        <v>41</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="29">
+        <v>41</v>
+      </c>
+      <c r="E23" s="9">
         <v>1760</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="18">
         <v>97.9</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="9">
+      <c r="D24" s="31"/>
+      <c r="E24" s="8">
         <v>308000</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="13">
-        <v>41</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="29">
+        <v>41</v>
+      </c>
+      <c r="E25" s="9">
         <v>18418</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="24">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="7">
+      <c r="C26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="6">
         <v>10536</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="25">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="7">
+      <c r="D27" s="30"/>
+      <c r="E27" s="6">
         <v>18294</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="19">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="7">
+      <c r="D28" s="30"/>
+      <c r="E28" s="6">
         <v>32100</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="19">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="7">
+      <c r="D29" s="30"/>
+      <c r="E29" s="6">
         <v>16532</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="19">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="35"/>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="7">
+      <c r="D30" s="30"/>
+      <c r="E30" s="6">
         <v>15810</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="19">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="7">
+      <c r="D31" s="30"/>
+      <c r="E31" s="6">
         <v>8802</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="19">
         <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="35"/>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="7">
+      <c r="D32" s="30"/>
+      <c r="E32" s="6">
         <v>18823</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="19">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="35"/>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="7">
+      <c r="D33" s="30"/>
+      <c r="E33" s="6">
         <v>9406</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="19">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="35"/>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="7">
+      <c r="D34" s="30"/>
+      <c r="E34" s="6">
         <v>7048</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="19">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="9">
+      <c r="D35" s="31"/>
+      <c r="E35" s="8">
         <v>13740</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="20">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="41">
         <v>51</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>2614</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="18">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="9">
+      <c r="A37" s="33"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="8">
         <v>6540</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="20">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="13">
-        <v>41</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D38" s="29">
+        <v>41</v>
+      </c>
+      <c r="E38" s="9">
         <v>1760</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="18">
         <v>96</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="7">
+      <c r="D39" s="30"/>
+      <c r="E39" s="6">
         <v>308000</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="19">
         <v>98</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="7">
+      <c r="D40" s="30"/>
+      <c r="E40" s="6">
         <v>196966</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="19">
         <v>95.4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="7">
+      <c r="D41" s="30"/>
+      <c r="E41" s="6">
         <v>11466</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="19">
         <v>96.1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="9" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="9">
+      <c r="D42" s="31"/>
+      <c r="E42" s="8">
         <v>2834</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="20">
         <v>98.2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="13">
-        <v>41</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="29">
+        <v>41</v>
+      </c>
+      <c r="E43" s="9">
         <v>2260</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="18">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="7">
+      <c r="D44" s="30"/>
+      <c r="E44" s="6">
         <v>1450</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="19">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>51</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>2614</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="19">
         <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="9" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>101</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>4200</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="20">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="23">
-        <v>41</v>
-      </c>
-      <c r="E47" s="23">
+      <c r="D47" s="13">
+        <v>41</v>
+      </c>
+      <c r="E47" s="13">
         <v>5484</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="22">
         <v>84.1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="13">
-        <v>41</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="D48" s="29">
+        <v>41</v>
+      </c>
+      <c r="E48" s="9">
         <v>1229712</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="18">
         <v>93.24</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="7" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="7">
+      <c r="D49" s="30"/>
+      <c r="E49" s="6">
         <v>761300</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="19">
         <v>99.03</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="7" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="7">
+      <c r="D50" s="30"/>
+      <c r="E50" s="6">
         <v>76104</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="7" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="7">
+      <c r="D51" s="30"/>
+      <c r="E51" s="6">
         <v>53028</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="7" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="7">
+      <c r="D52" s="30"/>
+      <c r="E52" s="6">
         <v>29354</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="7" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="7">
+      <c r="D53" s="30"/>
+      <c r="E53" s="6">
         <v>1553716</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="7" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="7">
+      <c r="D54" s="30"/>
+      <c r="E54" s="6">
         <v>326986</v>
       </c>
-      <c r="F54" s="32" t="s">
+      <c r="F54" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="7" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="7">
+      <c r="D55" s="30"/>
+      <c r="E55" s="6">
         <v>6903</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="9" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="9">
+      <c r="D56" s="31"/>
+      <c r="E56" s="8">
         <v>8188</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="F56" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="13">
-        <v>41</v>
-      </c>
-      <c r="E57" s="10">
+      <c r="D57" s="29">
+        <v>41</v>
+      </c>
+      <c r="E57" s="9">
         <v>1760</v>
       </c>
-      <c r="F57" s="31">
+      <c r="F57" s="18">
         <v>98.2</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="9" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="9">
+      <c r="D58" s="31"/>
+      <c r="E58" s="8">
         <v>3868</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="20">
         <v>93.9</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="3"/>
+      <c r="B59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="13">
-        <v>41</v>
-      </c>
-      <c r="E60" s="10">
+      <c r="D60" s="29">
+        <v>41</v>
+      </c>
+      <c r="E60" s="9">
         <v>18418</v>
       </c>
-      <c r="F60" s="31">
+      <c r="F60" s="18">
         <v>82.62</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="7" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="7">
+      <c r="D61" s="30"/>
+      <c r="E61" s="6">
         <v>10536</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="19">
         <v>91.35</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="7" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="7">
+      <c r="D62" s="30"/>
+      <c r="E62" s="6">
         <v>18294</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="19">
         <v>89.04</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="7" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="7">
+      <c r="D63" s="30"/>
+      <c r="E63" s="6">
         <v>32100</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="19">
         <v>88.31</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="7" t="s">
+      <c r="A64" s="37"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="7">
+      <c r="D64" s="30"/>
+      <c r="E64" s="6">
         <v>16532</v>
       </c>
-      <c r="F64" s="32">
+      <c r="F64" s="19">
         <v>82.88</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="7" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="7">
+      <c r="D65" s="30"/>
+      <c r="E65" s="6">
         <v>15810</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F65" s="19">
         <v>90.79</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="7" t="s">
+      <c r="A66" s="37"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="7">
+      <c r="D66" s="30"/>
+      <c r="E66" s="6">
         <v>8802</v>
       </c>
-      <c r="F66" s="32">
+      <c r="F66" s="19">
         <v>85.04</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="7" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="7">
+      <c r="D67" s="30"/>
+      <c r="E67" s="6">
         <v>18823</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="19">
         <v>86.3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="7" t="s">
+      <c r="A68" s="37"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="7">
+      <c r="D68" s="30"/>
+      <c r="E68" s="6">
         <v>9406</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F68" s="19">
         <v>87.58</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="7" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="7">
+      <c r="D69" s="30"/>
+      <c r="E69" s="6">
         <v>7048</v>
       </c>
-      <c r="F69" s="32">
+      <c r="F69" s="19">
         <v>90.66</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="9" t="s">
+      <c r="A70" s="33"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="9">
+      <c r="D70" s="31"/>
+      <c r="E70" s="8">
         <v>13740</v>
       </c>
-      <c r="F70" s="34">
+      <c r="F70" s="20">
         <v>90.25</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="13">
-        <v>41</v>
-      </c>
-      <c r="E71" s="10">
+      <c r="D71" s="29">
+        <v>41</v>
+      </c>
+      <c r="E71" s="9">
         <v>1760</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="18">
         <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="35"/>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="7">
+      <c r="D72" s="30"/>
+      <c r="E72" s="6">
         <v>308000</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F72" s="19">
         <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="35"/>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="7">
+      <c r="D73" s="30"/>
+      <c r="E73" s="6">
         <v>8979</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="F73" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="9" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="9">
+      <c r="D74" s="31"/>
+      <c r="E74" s="8">
         <v>67650</v>
       </c>
-      <c r="F74" s="34" t="s">
+      <c r="F74" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="13">
-        <v>41</v>
-      </c>
-      <c r="E75" s="10">
+      <c r="D75" s="29">
+        <v>41</v>
+      </c>
+      <c r="E75" s="9">
         <v>30800</v>
       </c>
-      <c r="F75" s="31">
+      <c r="F75" s="18">
         <v>98.1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="35"/>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="7">
+      <c r="D76" s="30"/>
+      <c r="E76" s="6">
         <v>3868</v>
       </c>
-      <c r="F76" s="32">
+      <c r="F76" s="19">
         <v>94.9</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="9" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="9">
+      <c r="D77" s="31"/>
+      <c r="E77" s="8">
         <v>1229712</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="20">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="38" t="s">
         <v>17</v>
       </c>
+      <c r="C79" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="29">
+        <v>41</v>
+      </c>
+      <c r="E79" s="44">
+        <v>154000</v>
+      </c>
+      <c r="F79" s="45">
+        <v>0.98899999999999999</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="37"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="30"/>
+      <c r="E80" s="43">
+        <v>880</v>
+      </c>
+      <c r="F80" s="46">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="37"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="30"/>
+      <c r="E81" s="43">
+        <v>15937</v>
+      </c>
+      <c r="F81" s="46">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="37"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="30"/>
+      <c r="E82" s="43">
+        <v>11815</v>
+      </c>
+      <c r="F82" s="46">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="37"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="43">
+        <v>22700</v>
+      </c>
+      <c r="F83" s="46">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="37"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="30"/>
+      <c r="E84" s="43">
+        <v>18335</v>
+      </c>
+      <c r="F84" s="46">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="33"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="31"/>
+      <c r="E85" s="47">
+        <v>11191</v>
+      </c>
+      <c r="F85" s="48">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B88" s="34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
+      <c r="C88" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" s="49">
+        <v>41</v>
+      </c>
+      <c r="E88" s="44">
+        <v>1130</v>
+      </c>
+      <c r="F88" s="45">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="37"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="7">
+        <v>41</v>
+      </c>
+      <c r="E89" s="43">
+        <v>725</v>
+      </c>
+      <c r="F89" s="46">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="37"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="7">
+        <v>51</v>
+      </c>
+      <c r="E90" s="43">
+        <v>1307</v>
+      </c>
+      <c r="F90" s="46">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="33"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" s="50">
+        <v>101</v>
+      </c>
+      <c r="E91" s="47">
+        <v>2100</v>
+      </c>
+      <c r="F91" s="48">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="52"/>
+      <c r="B92" s="38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="C92" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="29">
+        <v>41</v>
+      </c>
+      <c r="E92" s="53">
+        <v>2768</v>
+      </c>
+      <c r="F92" s="45">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="54"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="30"/>
+      <c r="E93" s="51">
+        <v>880</v>
+      </c>
+      <c r="F93" s="46">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="55"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="31"/>
+      <c r="E94" s="56">
+        <v>1934</v>
+      </c>
+      <c r="F94" s="48">
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B95" s="38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+      <c r="C95" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="44">
+        <v>41</v>
+      </c>
+      <c r="E95" s="53">
+        <v>880</v>
+      </c>
+      <c r="F95" s="45">
+        <v>0.9879</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="37"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="43">
+        <v>41</v>
+      </c>
+      <c r="E96" s="51">
+        <v>4303</v>
+      </c>
+      <c r="F96" s="46">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="37"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="43">
+        <v>41</v>
+      </c>
+      <c r="E97" s="51">
+        <v>388</v>
+      </c>
+      <c r="F97" s="46">
+        <v>0.95840000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="33"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="47">
+        <v>101</v>
+      </c>
+      <c r="E98" s="56">
+        <v>2100</v>
+      </c>
+      <c r="F98" s="48">
+        <v>0.99309999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+    <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+    <row r="101" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B101" s="58" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="C101" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="60">
+        <v>41</v>
+      </c>
+      <c r="E101" s="59">
+        <v>154000</v>
+      </c>
+      <c r="F101" s="61">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B102" s="62" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="C102" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" s="59">
+        <v>41</v>
+      </c>
+      <c r="E102" s="60">
+        <v>880</v>
+      </c>
+      <c r="F102" s="61">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="B103" s="63" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="24" t="s">
+      <c r="C103" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="65">
+        <v>41</v>
+      </c>
+      <c r="E103" s="44">
+        <v>1417</v>
+      </c>
+      <c r="F103" s="45">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="33"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" s="66"/>
+      <c r="E104" s="47">
+        <v>5733</v>
+      </c>
+      <c r="F104" s="48">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="57"/>
+      <c r="B105" s="62" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="C105" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="59">
+        <v>51</v>
+      </c>
+      <c r="E105" s="60">
+        <v>3270</v>
+      </c>
+      <c r="F105" s="61"/>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B106" s="62" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="24" t="s">
+      <c r="C106" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="59">
+        <v>41</v>
+      </c>
+      <c r="E106" s="60">
+        <v>880</v>
+      </c>
+      <c r="F106" s="61">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="25" t="s">
+    <row r="108" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="24" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="52"/>
+      <c r="B109" s="63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="24" t="s">
+      <c r="C109" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109" s="49">
+        <v>41</v>
+      </c>
+      <c r="E109" s="44">
+        <v>1934</v>
+      </c>
+      <c r="F109" s="45">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="55"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="47">
+        <v>41</v>
+      </c>
+      <c r="E110" s="56">
+        <v>880</v>
+      </c>
+      <c r="F110" s="48">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="57"/>
+      <c r="B111" s="62" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="24"/>
+      <c r="C111" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="67">
+        <v>41</v>
+      </c>
+      <c r="E111" s="68">
+        <v>19796</v>
+      </c>
+      <c r="F111" s="61">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="14"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="43">
+  <mergeCells count="56">
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D5:D15"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="D79:D85"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B25:B35"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D35"/>
+    <mergeCell ref="B60:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="D71:D74"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B75:B77"/>
@@ -2478,33 +2991,6 @@
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B48:B56"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D35"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B25:B35"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D5:D15"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/m6A papers/dataset_performance.xlsx
+++ b/m6A papers/dataset_performance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89140AD-0970-4897-8C83-F139AB68539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>A deep learning-based computational approach for discrimination of DNA N6-methyladenosine sites by fusing heterogeneous features</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,31 +84,25 @@
   </si>
   <si>
     <t>Deep6mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(S2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mAPred-MSFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-Pred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Deep6mA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6(S2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mAPred-MSFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mA-Pred</t>
-  </si>
-  <si>
-    <t>6mA-Pred</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep6mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iRicem6A-CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,147 +180,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TS-m6A-DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICD6mA</t>
+  </si>
+  <si>
+    <t>SICD6mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homo sapiens,Samples:491885:491885,length 41nt(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice Nip,Samples:304520:304520,length 41nt(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just for testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae,Samples:3270:3270,length 51bp(RNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just for testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana,Samples:98483:98483,length 41(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosa chinensis,Samples:1417:1417,length 41(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-Fuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fragaria vesca,Samples:5733:5733,length 41(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mus musculus,Samples:1934:1934,length 41(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A deep learning-based computational approach for discrimination of DNA N6-methyladenosine sites by fusing heterogeneous features</t>
+  </si>
+  <si>
+    <t>2(S1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leveraging the attention mechanism to improve the identification of DNA N6-methyladenine sites(LA6mA,AL6mA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just for testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabidopsis Thaliana,Samples:15937:15937,length 41(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R. chinensis,Samples:11815:11815,length 41(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. melanogaster,Samples:11191:11191,length 41(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIP_10000(rice),Samples:10000:10000,length 41(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant6mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mAVGG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iN6-Methyl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>im6A-TS-CNN</t>
-  </si>
-  <si>
-    <t>TS-m6A-DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arabidopsis thaliana ,Samples: 2100:2100,length 41nt(RNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cross-sepies ,Samples:2768:2716,length 41nt(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana ,Samples: 2100:2100,length 101nt(DNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cant find</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Deep transformers and convolutional neural network in identifying DNA N6-methyladenine sites in cross-species genomes </t>
-  </si>
-  <si>
-    <t>SICD6mA</t>
-  </si>
-  <si>
-    <t>SICD6mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Homo sapiens,Samples:491885:491885,length 41nt(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice Nip,Samples:304520:304520,length 41nt(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>just for testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae,Samples:3270:3270,length 51bp(RNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>just for testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arabidopsis thaliana,Samples:98483:98483,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rosa chinensis,Samples:1417:1417,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-Fuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fragaria vesca,Samples:5733:5733,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mus musculus,Samples:1934:1934,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A deep learning-based computational approach for discrimination of DNA N6-methyladenosine sites by fusing heterogeneous features</t>
-  </si>
-  <si>
-    <t>2(S1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leveraging the attention mechanism to improve the identification of DNA N6-methyladenine sites(LA6mA,AL6mA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>just for testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arabidopsis Thaliana,Samples:15937:15937,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R. chinensis,Samples:11815:11815,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D. melanogaster,Samples:11191:11191,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fragaria vesca,Samples:22700:22700,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H. sapiens,Samples:18335:18335,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice-GC6mA,Samples:12000:12000,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIP_10000(rice),Samples:10000:10000,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fragaria vesca,Samples:4303:4303,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E. coli ,Samples:388:388,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rosaceae,Samples:36537:36537,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arabidopsis thaliana,Samples:31873:31873,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plant6mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cross species :2768:2716,length 41(DNA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mAVGG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep6mA(沒標示正負)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ilM-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice-GC6mA,Samples:12000:12000,length 41(DNA)(cant find)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLF6mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fragaria vesca,Samples:4303:4303,length 41(DNA)(cant find)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E. coli ,Samples:388:388,length 41(DNA)(cant find)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosaceae,Samples:36537:36537,length 41(DNA)(cant find)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana,Samples:31873:31873,length 41(DNA)(cant find)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross-species :2768:2716,length 41(DNA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,6 +384,14 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,6 +428,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -449,7 +463,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -487,7 +507,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -525,7 +551,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -563,7 +595,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -601,7 +639,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5"/>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -639,7 +683,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="圖片 6"/>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -677,7 +727,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="圖片 8"/>
+        <xdr:cNvPr id="9" name="圖片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -715,7 +771,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="圖片 9"/>
+        <xdr:cNvPr id="10" name="圖片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -753,7 +815,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="圖片 10"/>
+        <xdr:cNvPr id="11" name="圖片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -791,7 +859,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="圖片 11"/>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -829,7 +903,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="圖片 12"/>
+        <xdr:cNvPr id="13" name="圖片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -867,7 +947,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="圖片 13"/>
+        <xdr:cNvPr id="14" name="圖片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -905,7 +991,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="圖片 14"/>
+        <xdr:cNvPr id="15" name="圖片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -943,7 +1035,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="圖片 15"/>
+        <xdr:cNvPr id="16" name="圖片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -981,7 +1079,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="圖片 16"/>
+        <xdr:cNvPr id="17" name="圖片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1019,7 +1123,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="圖片 17"/>
+        <xdr:cNvPr id="18" name="圖片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1057,7 +1167,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="圖片 18"/>
+        <xdr:cNvPr id="19" name="圖片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1112,7 +1228,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="圖片 19"/>
+        <xdr:cNvPr id="20" name="圖片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1167,7 +1289,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="圖片 20"/>
+        <xdr:cNvPr id="21" name="圖片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1222,7 +1350,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="圖片 21"/>
+        <xdr:cNvPr id="22" name="圖片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1260,7 +1394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="圖片 22"/>
+        <xdr:cNvPr id="23" name="圖片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1315,7 +1455,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="圖片 23"/>
+        <xdr:cNvPr id="24" name="圖片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1370,7 +1516,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="圖片 24"/>
+        <xdr:cNvPr id="25" name="圖片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1408,7 +1560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="圖片 25"/>
+        <xdr:cNvPr id="26" name="圖片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1463,7 +1621,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="圖片 26"/>
+        <xdr:cNvPr id="27" name="圖片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1501,7 +1665,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="圖片 27"/>
+        <xdr:cNvPr id="28" name="圖片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1539,7 +1709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="圖片 28"/>
+        <xdr:cNvPr id="29" name="圖片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1577,7 +1753,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="圖片 29"/>
+        <xdr:cNvPr id="30" name="圖片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1615,7 +1797,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="圖片 30"/>
+        <xdr:cNvPr id="31" name="圖片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1653,7 +1841,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="圖片 31"/>
+        <xdr:cNvPr id="32" name="圖片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1691,7 +1885,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="圖片 32"/>
+        <xdr:cNvPr id="33" name="圖片 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1729,7 +1929,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="圖片 33"/>
+        <xdr:cNvPr id="34" name="圖片 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1767,7 +1973,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="圖片 34"/>
+        <xdr:cNvPr id="35" name="圖片 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1805,7 +2017,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="圖片 35"/>
+        <xdr:cNvPr id="36" name="圖片 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1843,7 +2061,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="圖片 36"/>
+        <xdr:cNvPr id="37" name="圖片 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1881,7 +2105,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="圖片 37"/>
+        <xdr:cNvPr id="38" name="圖片 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1919,7 +2149,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="圖片 38"/>
+        <xdr:cNvPr id="39" name="圖片 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1957,7 +2193,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="圖片 39"/>
+        <xdr:cNvPr id="40" name="圖片 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1995,7 +2237,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="圖片 40"/>
+        <xdr:cNvPr id="41" name="圖片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2033,7 +2281,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="圖片 41"/>
+        <xdr:cNvPr id="42" name="圖片 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2071,7 +2325,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="圖片 43"/>
+        <xdr:cNvPr id="44" name="圖片 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2109,7 +2369,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="圖片 44"/>
+        <xdr:cNvPr id="45" name="圖片 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2147,7 +2413,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="圖片 45"/>
+        <xdr:cNvPr id="46" name="圖片 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2185,7 +2457,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="圖片 46"/>
+        <xdr:cNvPr id="47" name="圖片 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2223,7 +2501,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="圖片 47"/>
+        <xdr:cNvPr id="48" name="圖片 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2249,717 +2533,831 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>305794</xdr:colOff>
+      <xdr:row>570</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="圖片 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10429875" y="123663075"/>
+          <a:ext cx="7125694" cy="1562318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>539</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152996</xdr:colOff>
+      <xdr:row>561</xdr:row>
+      <xdr:rowOff>95907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="圖片 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="118605300"/>
+          <a:ext cx="4267796" cy="4706007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>574</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152996</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>95907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="圖片 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="125939550"/>
+          <a:ext cx="4267796" cy="4706007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6925642</xdr:colOff>
+      <xdr:row>617</xdr:row>
+      <xdr:rowOff>181585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="圖片 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="130759200"/>
+          <a:ext cx="6925642" cy="4372585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>624</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95933</xdr:colOff>
+      <xdr:row>648</xdr:row>
+      <xdr:rowOff>10228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="圖片 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="136417050"/>
+          <a:ext cx="4896533" cy="5039428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>657</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200532</xdr:colOff>
+      <xdr:row>670</xdr:row>
+      <xdr:rowOff>181380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="圖片 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="143332200"/>
+          <a:ext cx="3629532" cy="2905530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>679</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657700</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>124223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="圖片 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="147942300"/>
+          <a:ext cx="3400900" cy="2848373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>699</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>610355</xdr:colOff>
+      <xdr:row>709</xdr:row>
+      <xdr:rowOff>9819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="圖片 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="152133300"/>
+          <a:ext cx="5410955" cy="2105319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>710</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601307</xdr:colOff>
+      <xdr:row>718</xdr:row>
+      <xdr:rowOff>133603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="圖片 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="154647900"/>
+          <a:ext cx="8830907" cy="1810003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>720</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400776</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>181731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="圖片 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="156743400"/>
+          <a:ext cx="5201376" cy="5420481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>747</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>610547</xdr:colOff>
+      <xdr:row>755</xdr:row>
+      <xdr:rowOff>76445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="圖片 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="162191700"/>
+          <a:ext cx="6782747" cy="1752845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>758</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3620005</xdr:colOff>
+      <xdr:row>762</xdr:row>
+      <xdr:rowOff>19170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="圖片 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="164496750"/>
+          <a:ext cx="3620005" cy="857370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>768</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5001323</xdr:colOff>
+      <xdr:row>775</xdr:row>
+      <xdr:rowOff>162135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="圖片 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="166716075"/>
+          <a:ext cx="5001323" cy="1505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>777</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>506236</xdr:colOff>
+      <xdr:row>793</xdr:row>
+      <xdr:rowOff>95731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="圖片 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="168478200"/>
+          <a:ext cx="10107436" cy="3448531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>817</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172144</xdr:colOff>
+      <xdr:row>832</xdr:row>
+      <xdr:rowOff>57597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="圖片 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="179165250"/>
+          <a:ext cx="4972744" cy="3200847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>570417</xdr:colOff>
+      <xdr:row>854</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="圖片 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="183565800"/>
+          <a:ext cx="8800017" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>860</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353144</xdr:colOff>
+      <xdr:row>869</xdr:row>
+      <xdr:rowOff>181263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="圖片 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="188175900"/>
+          <a:ext cx="5153744" cy="2067213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>871</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515092</xdr:colOff>
+      <xdr:row>887</xdr:row>
+      <xdr:rowOff>105258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="圖片 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="190480950"/>
+          <a:ext cx="5315692" cy="3458058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>889</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>372197</xdr:colOff>
-      <xdr:row>561</xdr:row>
+      <xdr:row>911</xdr:row>
       <xdr:rowOff>76854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="圖片 48"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="112947450"/>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2756688-EC0F-41D8-9F57-60ECFA3CB501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="191947800"/>
           <a:ext cx="5172797" cy="4686954"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>590</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>305794</xdr:colOff>
-      <xdr:row>597</xdr:row>
-      <xdr:rowOff>124043</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="圖片 50"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10429875" y="123663075"/>
-          <a:ext cx="7125694" cy="1562318"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>566</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152996</xdr:colOff>
-      <xdr:row>588</xdr:row>
-      <xdr:rowOff>95907</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="圖片 51"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="118605300"/>
-          <a:ext cx="4267796" cy="4706007"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>601</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152996</xdr:colOff>
-      <xdr:row>623</xdr:row>
-      <xdr:rowOff>95907</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="圖片 52"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="125939550"/>
-          <a:ext cx="4267796" cy="4706007"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>624</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6925642</xdr:colOff>
-      <xdr:row>644</xdr:row>
-      <xdr:rowOff>181585</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="圖片 53"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="130759200"/>
-          <a:ext cx="6925642" cy="4372585"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>651</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95933</xdr:colOff>
-      <xdr:row>675</xdr:row>
-      <xdr:rowOff>10228</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="圖片 54"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="136417050"/>
-          <a:ext cx="4896533" cy="5039428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>684</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200532</xdr:colOff>
-      <xdr:row>697</xdr:row>
-      <xdr:rowOff>181380</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="圖片 55"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="143332200"/>
-          <a:ext cx="3629532" cy="2905530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>706</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657700</xdr:colOff>
-      <xdr:row>719</xdr:row>
-      <xdr:rowOff>124223</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="圖片 56"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="147942300"/>
-          <a:ext cx="3400900" cy="2848373"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>726</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>610355</xdr:colOff>
-      <xdr:row>736</xdr:row>
-      <xdr:rowOff>9819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="圖片 57"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="152133300"/>
-          <a:ext cx="5410955" cy="2105319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>737</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>601307</xdr:colOff>
-      <xdr:row>745</xdr:row>
-      <xdr:rowOff>133603</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="圖片 58"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="154647900"/>
-          <a:ext cx="8830907" cy="1810003"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>747</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400776</xdr:colOff>
-      <xdr:row>772</xdr:row>
-      <xdr:rowOff>181731</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="圖片 59"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="156743400"/>
-          <a:ext cx="5201376" cy="5420481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>774</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>610547</xdr:colOff>
-      <xdr:row>782</xdr:row>
-      <xdr:rowOff>76445</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="圖片 60"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="162191700"/>
-          <a:ext cx="6782747" cy="1752845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>785</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3620005</xdr:colOff>
-      <xdr:row>789</xdr:row>
-      <xdr:rowOff>19170</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="圖片 61"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="164496750"/>
-          <a:ext cx="3620005" cy="857370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>795</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5001323</xdr:colOff>
-      <xdr:row>802</xdr:row>
-      <xdr:rowOff>162135</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="圖片 62"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="166716075"/>
-          <a:ext cx="5001323" cy="1505160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>804</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>506236</xdr:colOff>
-      <xdr:row>820</xdr:row>
-      <xdr:rowOff>95731</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="圖片 63"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="168478200"/>
-          <a:ext cx="10107436" cy="3448531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>855</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>172144</xdr:colOff>
-      <xdr:row>870</xdr:row>
-      <xdr:rowOff>57597</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="圖片 64"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="179165250"/>
-          <a:ext cx="4972744" cy="3200847"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>876</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>570417</xdr:colOff>
-      <xdr:row>892</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="圖片 65"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="183565800"/>
-          <a:ext cx="8800017" cy="3438525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>898</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>353144</xdr:colOff>
-      <xdr:row>907</xdr:row>
-      <xdr:rowOff>181263</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="圖片 66"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="188175900"/>
-          <a:ext cx="5153744" cy="2067213"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>909</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>515092</xdr:colOff>
-      <xdr:row>925</xdr:row>
-      <xdr:rowOff>105258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="圖片 67"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="190480950"/>
-          <a:ext cx="5315692" cy="3458058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3047,6 +3445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3082,6 +3497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3257,11 +3689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O909"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O889"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A912" workbookViewId="0">
-      <selection activeCell="A928" sqref="A928"/>
+    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
+      <selection activeCell="A539" sqref="A539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3703,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3420,7 +3852,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -3467,7 +3899,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>2020</v>
@@ -3503,7 +3935,7 @@
     </row>
     <row r="47" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="4:15" x14ac:dyDescent="0.25">
@@ -3543,12 +3975,12 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -3560,12 +3992,12 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B100">
         <v>2019</v>
@@ -3590,7 +4022,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B102">
         <v>2021</v>
@@ -3601,7 +4033,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B103">
         <v>2021</v>
@@ -3612,7 +4044,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B104">
         <v>2021</v>
@@ -3623,7 +4055,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B105">
         <v>2021</v>
@@ -3645,7 +4077,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B107">
         <v>2022</v>
@@ -3659,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
@@ -3684,7 +4116,7 @@
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
@@ -3694,12 +4126,12 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B205">
         <v>2019</v>
@@ -3713,7 +4145,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B206">
         <v>2020</v>
@@ -3724,7 +4156,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B207">
         <v>2020</v>
@@ -3735,7 +4167,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B208">
         <v>2021</v>
@@ -3746,7 +4178,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B209">
         <v>2021</v>
@@ -3777,12 +4209,12 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B285">
         <v>2019</v>
@@ -3796,7 +4228,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B286">
         <v>2020</v>
@@ -3807,7 +4239,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B287">
         <v>2021</v>
@@ -3818,7 +4250,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B288">
         <v>2021</v>
@@ -3844,12 +4276,12 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B348">
         <v>2019</v>
@@ -3863,7 +4295,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B349">
         <v>2020</v>
@@ -3874,7 +4306,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B350">
         <v>2021</v>
@@ -3885,7 +4317,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B351">
         <v>2021</v>
@@ -3909,9 +4341,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B422">
         <v>2020</v>
@@ -3925,7 +4362,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B423">
         <v>2020</v>
@@ -3936,7 +4373,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B424">
         <v>2021</v>
@@ -3957,12 +4394,12 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B476">
         <v>2020</v>
@@ -3976,7 +4413,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B477">
         <v>2021</v>
@@ -3987,7 +4424,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B478">
         <v>2021</v>
@@ -4024,15 +4461,15 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B539">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C539" s="5">
         <v>1</v>
@@ -4041,285 +4478,334 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>22</v>
+      </c>
+      <c r="B540">
+        <v>2021</v>
+      </c>
+      <c r="C540" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>47</v>
+      </c>
+      <c r="B574">
+        <v>2020</v>
+      </c>
+      <c r="C574" s="5">
+        <v>1</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>46</v>
+      </c>
+      <c r="B619">
+        <v>2020</v>
+      </c>
+      <c r="C619" s="5">
+        <v>1</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
+      </c>
+      <c r="E619" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>36</v>
+      </c>
+      <c r="B624">
+        <v>2020</v>
+      </c>
+      <c r="C624" s="5">
+        <v>1</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>73</v>
+      </c>
+      <c r="B653">
+        <v>2021</v>
+      </c>
+      <c r="C653" s="5">
+        <v>1</v>
+      </c>
+      <c r="D653" s="9">
+        <v>1</v>
+      </c>
+      <c r="E653" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>53</v>
-      </c>
-      <c r="B566">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>55</v>
+      </c>
+      <c r="B657">
         <v>2020</v>
       </c>
-      <c r="C566" s="5">
+      <c r="C657" s="5">
         <v>1</v>
       </c>
-      <c r="D566">
+      <c r="D657" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>24</v>
-      </c>
-      <c r="B567">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>73</v>
+      </c>
+      <c r="B658">
         <v>2021</v>
       </c>
-      <c r="C567" s="5">
+      <c r="C658" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D590">
+      <c r="D658" s="5"/>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D672">
         <v>2</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
+      <c r="E672" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>53</v>
-      </c>
-      <c r="B601">
+      <c r="B679">
         <v>2020</v>
       </c>
-      <c r="C601" s="5">
+      <c r="C679" s="5">
         <v>1</v>
       </c>
-      <c r="D601">
+      <c r="D679">
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
-        <v>52</v>
-      </c>
-      <c r="B646">
-        <v>2020</v>
-      </c>
-      <c r="C646" s="5">
-        <v>1</v>
-      </c>
-      <c r="D646">
-        <v>1</v>
-      </c>
-      <c r="E646" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
-        <v>38</v>
-      </c>
-      <c r="B651">
-        <v>2020</v>
-      </c>
-      <c r="C651" s="5">
-        <v>1</v>
-      </c>
-      <c r="D651">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A679" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B680">
         <v>2021</v>
       </c>
       <c r="C680" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D694">
+        <v>2</v>
+      </c>
+      <c r="E694" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>74</v>
+      </c>
+      <c r="B699">
+        <v>2019</v>
+      </c>
+      <c r="C699" s="5">
         <v>1</v>
       </c>
-      <c r="D680" s="9">
+      <c r="D699">
         <v>1</v>
       </c>
-      <c r="E680" t="s">
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A683" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
-        <v>61</v>
-      </c>
-      <c r="B684">
+      <c r="B700">
         <v>2020</v>
       </c>
-      <c r="C684" s="5">
-        <v>1</v>
-      </c>
-      <c r="D684" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
-        <v>19</v>
-      </c>
-      <c r="B685">
+      <c r="C700" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>13</v>
+      </c>
+      <c r="B701">
+        <v>2020</v>
+      </c>
+      <c r="C701" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>22</v>
+      </c>
+      <c r="B702">
         <v>2021</v>
       </c>
-      <c r="C685" s="5">
-        <v>2</v>
-      </c>
-      <c r="D685" s="5"/>
-    </row>
-    <row r="699" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D699">
-        <v>2</v>
-      </c>
-      <c r="E699" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A705" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
-        <v>61</v>
-      </c>
-      <c r="B706">
-        <v>2020</v>
-      </c>
-      <c r="C706" s="5">
-        <v>1</v>
-      </c>
-      <c r="D706">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
-        <v>19</v>
-      </c>
-      <c r="B707">
-        <v>2021</v>
-      </c>
-      <c r="C707" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D721">
-        <v>2</v>
-      </c>
-      <c r="E721" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
-        <v>15</v>
-      </c>
-      <c r="B726">
-        <v>2019</v>
-      </c>
-      <c r="C726" s="5">
-        <v>1</v>
-      </c>
-      <c r="D726">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
-        <v>64</v>
-      </c>
-      <c r="B727">
-        <v>2020</v>
-      </c>
-      <c r="C727" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
-        <v>13</v>
-      </c>
-      <c r="B728">
-        <v>2020</v>
-      </c>
-      <c r="C728" s="5">
+      <c r="C702" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="710" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D710" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="720" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D720">
         <v>3</v>
-      </c>
-    </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
-        <v>23</v>
-      </c>
-      <c r="B729">
-        <v>2021</v>
-      </c>
-      <c r="C729" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="737" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D737" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="747" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D747">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="774" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D774">
+      <c r="B764">
+        <v>2021</v>
+      </c>
+      <c r="C764" s="5">
+        <v>1</v>
+      </c>
+      <c r="D764">
+        <v>1</v>
+      </c>
+      <c r="E764" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>60</v>
+      </c>
+      <c r="B777">
+        <v>2021</v>
+      </c>
+      <c r="C777" s="5">
+        <v>1</v>
+      </c>
+      <c r="D777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>25</v>
+      </c>
+      <c r="B797">
+        <v>2021</v>
+      </c>
+      <c r="C797" s="5">
+        <v>1</v>
+      </c>
+      <c r="D797">
+        <v>1</v>
+      </c>
+      <c r="E797" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
-        <v>3</v>
-      </c>
-      <c r="B791">
-        <v>2021</v>
-      </c>
-      <c r="C791" s="5">
-        <v>1</v>
-      </c>
-      <c r="D791">
-        <v>1</v>
-      </c>
-      <c r="E791" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B798">
+        <v>2022</v>
+      </c>
+      <c r="C798" s="5">
+        <v>2</v>
+      </c>
+      <c r="D798">
+        <v>2</v>
+      </c>
+      <c r="E798" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B804">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C804" s="5">
         <v>1</v>
@@ -4327,230 +4813,134 @@
       <c r="D804">
         <v>1</v>
       </c>
-    </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A821" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A822" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
+      <c r="E804" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
         <v>7</v>
       </c>
-      <c r="B824">
+      <c r="B811">
+        <v>2022</v>
+      </c>
+      <c r="C811" s="5">
+        <v>1</v>
+      </c>
+      <c r="D811">
+        <v>1</v>
+      </c>
+      <c r="E811" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>76</v>
+      </c>
+      <c r="B817">
+        <v>2022</v>
+      </c>
+      <c r="C817" s="5">
+        <v>1</v>
+      </c>
+      <c r="D817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>66</v>
+      </c>
+      <c r="B838">
+        <v>2022</v>
+      </c>
+      <c r="C838" s="5">
+        <v>1</v>
+      </c>
+      <c r="D838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>74</v>
+      </c>
+      <c r="B860">
+        <v>2019</v>
+      </c>
+      <c r="C860" s="5">
+        <v>1</v>
+      </c>
+      <c r="D860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>67</v>
+      </c>
+      <c r="B861">
+        <v>2020</v>
+      </c>
+      <c r="C861" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>72</v>
+      </c>
+      <c r="B862">
         <v>2021</v>
       </c>
-      <c r="C824" s="5">
-        <v>1</v>
-      </c>
-      <c r="D824">
-        <v>1</v>
-      </c>
-      <c r="E824" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
-        <v>4</v>
-      </c>
-      <c r="B825">
-        <v>2022</v>
-      </c>
-      <c r="C825" s="5">
+      <c r="C862" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D871">
         <v>2</v>
       </c>
-      <c r="D825">
-        <v>2</v>
-      </c>
-      <c r="E825" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A831" t="s">
-        <v>7</v>
-      </c>
-      <c r="B831">
-        <v>2021</v>
-      </c>
-      <c r="C831" s="5">
-        <v>1</v>
-      </c>
-      <c r="D831">
-        <v>1</v>
-      </c>
-      <c r="E831" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" t="s">
-        <v>7</v>
-      </c>
-      <c r="B837">
-        <v>2021</v>
-      </c>
-      <c r="C837" s="5">
-        <v>1</v>
-      </c>
-      <c r="D837">
-        <v>1</v>
-      </c>
-      <c r="E837" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A842" t="s">
-        <v>5</v>
-      </c>
-      <c r="B842">
-        <v>2022</v>
-      </c>
-      <c r="C842" s="5">
-        <v>1</v>
-      </c>
-      <c r="D842">
-        <v>1</v>
-      </c>
-      <c r="E842" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A848" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
-        <v>7</v>
-      </c>
-      <c r="B849">
-        <v>2022</v>
-      </c>
-      <c r="C849" s="5">
-        <v>1</v>
-      </c>
-      <c r="D849">
-        <v>1</v>
-      </c>
-      <c r="E849" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A853" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A854" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A855" t="s">
-        <v>9</v>
-      </c>
-      <c r="B855">
-        <v>2022</v>
-      </c>
-      <c r="C855" s="5">
-        <v>1</v>
-      </c>
-      <c r="D855">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A874" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A875" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A876" t="s">
-        <v>79</v>
-      </c>
-      <c r="B876">
-        <v>2022</v>
-      </c>
-      <c r="C876" s="5">
-        <v>1</v>
-      </c>
-      <c r="D876">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A897" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A898" t="s">
-        <v>15</v>
-      </c>
-      <c r="B898">
-        <v>2019</v>
-      </c>
-      <c r="C898" s="5">
-        <v>1</v>
-      </c>
-      <c r="D898">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A899" t="s">
-        <v>81</v>
-      </c>
-      <c r="B899">
-        <v>2020</v>
-      </c>
-      <c r="C899" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D909">
-        <v>2</v>
+    </row>
+    <row r="889" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D889">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A726:B730">
-    <sortCondition ref="B730"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A699:B703">
+    <sortCondition ref="B703"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
